--- a/__repository/template_export/template-export-mcr.xlsx
+++ b/__repository/template_export/template-export-mcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>xx. Others4</t>
-  </si>
-  <si>
-    <t>filter</t>
   </si>
 </sst>
 </file>
@@ -716,7 +713,7 @@
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,18 +1120,6 @@
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
-      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
